--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed3/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.306</v>
+        <v>-12.093</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.43</v>
+        <v>-11.962</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.382</v>
+        <v>5.553000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.004</v>
+        <v>-22.191</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.856</v>
+        <v>-21.053</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.948</v>
+        <v>-8.068999999999999</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.008</v>
+        <v>-12.126</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.796</v>
+        <v>-21.618</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.106</v>
+        <v>-7.644999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.032</v>
+        <v>-8.404</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -669,13 +669,13 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.706000000000001</v>
+        <v>5.431</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.928</v>
+        <v>-12.94</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.710000000000001</v>
+        <v>-7.9</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.276</v>
+        <v>5.235</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.794</v>
+        <v>17.076</v>
       </c>
     </row>
     <row r="17">
@@ -734,19 +734,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.58</v>
+        <v>-21.231</v>
       </c>
       <c r="B18" t="n">
-        <v>7.961999999999999</v>
+        <v>8.115</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.418</v>
+        <v>-11.957</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>17.278</v>
+        <v>17.436</v>
       </c>
     </row>
     <row r="19">
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.472</v>
+        <v>-11.752</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>6.572</v>
+        <v>7.098999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -791,13 +791,13 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.868</v>
+        <v>-11.881</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>17.056</v>
+        <v>16.778</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.486</v>
+        <v>16.503</v>
       </c>
     </row>
     <row r="23">
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.932</v>
+        <v>-21.898</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>17.292</v>
+        <v>17.128</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.312</v>
+        <v>-12.162</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>17.52</v>
+        <v>17.141</v>
       </c>
     </row>
     <row r="28">
@@ -924,13 +924,13 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.67</v>
+        <v>5.205</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.814</v>
+        <v>-7.666000000000001</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.234</v>
+        <v>5.366000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>6.088</v>
+        <v>5.111</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.626</v>
+        <v>-12.872</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.767999999999999</v>
+        <v>-8.363</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1026,13 +1026,13 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.751999999999999</v>
+        <v>8.379</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.548</v>
+        <v>-7.781000000000001</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.716</v>
+        <v>-20.249</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.92</v>
+        <v>-13.052</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.968</v>
+        <v>16.817</v>
       </c>
     </row>
     <row r="40">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.093999999999999</v>
+        <v>8.382000000000001</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.404</v>
+        <v>-12.024</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.488</v>
+        <v>-8.767999999999999</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1179,16 +1179,16 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>4.586</v>
+        <v>4.915999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.612</v>
+        <v>-12.865</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.866</v>
+        <v>17.129</v>
       </c>
     </row>
     <row r="45">
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-13.05</v>
+        <v>-12.029</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.644</v>
+        <v>-7.689</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1270,7 +1270,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.056000000000001</v>
+        <v>-8.372</v>
       </c>
       <c r="E49" t="n">
         <v>16.49</v>
@@ -1281,13 +1281,13 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.74</v>
+        <v>5.211</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.162000000000001</v>
+        <v>-8.085999999999999</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.483999999999998</v>
+        <v>-8.379000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>17.166</v>
+        <v>16.988</v>
       </c>
     </row>
     <row r="52">
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.927999999999999</v>
+        <v>4.761</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1358,12 +1358,12 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.688</v>
+        <v>16.644</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.734</v>
+        <v>-21.756</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1386,10 +1386,10 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-14.024</v>
+        <v>-12.841</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.35</v>
+        <v>-8.068</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.9</v>
+        <v>16.546</v>
       </c>
     </row>
     <row r="58">
@@ -1420,13 +1420,13 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.304</v>
+        <v>-12.951</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.71</v>
+        <v>16.865</v>
       </c>
     </row>
     <row r="59">
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>17.364</v>
+        <v>17.048</v>
       </c>
     </row>
     <row r="61">
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.190000000000001</v>
+        <v>-7.861999999999999</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.284</v>
+        <v>17.61</v>
       </c>
     </row>
     <row r="64">
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.452</v>
+        <v>-12.567</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-22.128</v>
+        <v>-21.526</v>
       </c>
       <c r="B68" t="n">
-        <v>4.674</v>
+        <v>5.657999999999999</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.554</v>
+        <v>-7.846999999999999</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1644,7 +1644,7 @@
         <v>-9.93</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.324</v>
+        <v>-7.645</v>
       </c>
       <c r="E71" t="n">
         <v>17.13</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.25</v>
+        <v>-12.646</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.746</v>
+        <v>5.532</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.442</v>
+        <v>-19.913</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1749,12 +1749,12 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>17.168</v>
+        <v>16.918</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.796</v>
+        <v>-20.207</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.098</v>
+        <v>-20.858</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.534000000000001</v>
+        <v>-7.914</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.932</v>
+        <v>-20.175</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.182</v>
+        <v>-21.818</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.836</v>
+        <v>-7.877000000000001</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.09</v>
+        <v>-21.969</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1851,12 +1851,12 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.668</v>
+        <v>16.884</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-21.92</v>
+        <v>-21.925</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1885,7 +1885,7 @@
         <v>-7.87</v>
       </c>
       <c r="E85" t="n">
-        <v>17.114</v>
+        <v>17.051</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.952</v>
+        <v>16.626</v>
       </c>
     </row>
     <row r="87">
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.122</v>
+        <v>4.853000000000001</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.08</v>
+        <v>5.188000000000001</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.564</v>
+        <v>-12.876</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1995,13 +1995,13 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.148000000000001</v>
+        <v>4.647</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.32</v>
+        <v>-12.227</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.486</v>
+        <v>-8.085000000000001</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.574</v>
+        <v>-10.902</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.342</v>
+        <v>-12.001</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>6.118</v>
+        <v>6.290999999999999</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.316</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="97">
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.766</v>
+        <v>5.385000000000001</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.954</v>
+        <v>16.949</v>
       </c>
     </row>
     <row r="99">
@@ -2145,13 +2145,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.302</v>
+        <v>-21.075</v>
       </c>
       <c r="B101" t="n">
-        <v>4.796</v>
+        <v>5.912999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.468</v>
+        <v>-12.45</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.628</v>
+        <v>-21.358</v>
       </c>
       <c r="B102" t="n">
-        <v>6.02</v>
+        <v>6.813000000000001</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
